--- a/Test Data/FC_Power_Calculation_Max_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Max_Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E877F7-7AF8-48A0-81C0-ECC9C99AFABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3FAFA7-8B5E-4421-831D-180B23018FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test Data/FC_Power_Calculation_Max_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Max_Values.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3FAFA7-8B5E-4421-831D-180B23018FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E533D038-CD5D-4A50-AEAA-267B5BB6623F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="8" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="9" r:id="rId4"/>
+    <sheet name="Norway" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="59">
   <si>
     <t>Color Codes</t>
   </si>
@@ -194,6 +197,15 @@
   </si>
   <si>
     <t>NGC-3445/T1713/T1717/T1720</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
   </si>
 </sst>
 </file>
@@ -326,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -368,6 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -683,13 +696,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1017,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6218FED-08BA-47AE-9670-62CD3AFE82C3}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1042,13 +1055,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1363,6 +1376,693 @@
         <v>38</v>
       </c>
       <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A906E04C-C9AA-4E0A-9F36-981A5CB10487}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA56BA1B-FF5B-40FF-9BE7-A4EFDAE000F6}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B267E66-5FA9-43D2-AAD8-1F6A35FAAA1C}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Test Data/FC_Power_Calculation_Max_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E533D038-CD5D-4A50-AEAA-267B5BB6623F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D46DAE9-1739-49E2-9536-279EC127985D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Denmark" sheetId="8" r:id="rId3"/>
     <sheet name="Sweden" sheetId="9" r:id="rId4"/>
     <sheet name="Norway" sheetId="10" r:id="rId5"/>
+    <sheet name="Italy" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="66">
   <si>
     <t>Color Codes</t>
   </si>
@@ -206,6 +207,27 @@
   </si>
   <si>
     <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T3760</t>
+  </si>
+  <si>
+    <t>NGC-3464/T3755</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>FC240-4</t>
+  </si>
+  <si>
+    <t>FC240-2</t>
+  </si>
+  <si>
+    <t>3.100</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1882/T1884/T1886</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6218FED-08BA-47AE-9670-62CD3AFE82C3}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,7 +1644,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1707,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
@@ -1825,7 +1849,7 @@
         <v>250</v>
       </c>
       <c r="R8" s="14">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="S8" s="14" t="s">
         <v>38</v>
@@ -1850,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B267E66-5FA9-43D2-AAD8-1F6A35FAAA1C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,7 +1938,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
@@ -2073,4 +2099,365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44CDF6A-56E8-4A2F-9EEB-8FBB44C6B51D}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Power_Calculation_Max_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Max_Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D46DAE9-1739-49E2-9536-279EC127985D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2F35D-AFA9-45F6-BC0A-75E944432CC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2459,5 +2459,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/FC_Power_Calculation_Max_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2F35D-AFA9-45F6-BC0A-75E944432CC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14F9399-DA7F-4CA6-B37E-847C948C3247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sweden" sheetId="9" r:id="rId4"/>
     <sheet name="Norway" sheetId="10" r:id="rId5"/>
     <sheet name="Italy" sheetId="11" r:id="rId6"/>
+    <sheet name="Spain" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="68">
   <si>
     <t>Color Codes</t>
   </si>
@@ -228,6 +229,12 @@
   </si>
   <si>
     <t>NGC-3443/T1882/T1884/T1886</t>
+  </si>
+  <si>
+    <t>NGC-3442/T1708/T1711/T1715</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
   </si>
 </sst>
 </file>
@@ -2105,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44CDF6A-56E8-4A2F-9EEB-8FBB44C6B51D}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2461,4 +2468,366 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4AF7B-7F68-4DE2-A74D-67806212857E}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Power_Calculation_Max_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14F9399-DA7F-4CA6-B37E-847C948C3247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DA65B-5BE5-4D4C-BAAC-BD9F414DDA80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Norway" sheetId="10" r:id="rId5"/>
     <sheet name="Italy" sheetId="11" r:id="rId6"/>
     <sheet name="Spain" sheetId="12" r:id="rId7"/>
+    <sheet name="Romania" sheetId="13" r:id="rId8"/>
+    <sheet name="Slovakia" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="72">
   <si>
     <t>Color Codes</t>
   </si>
@@ -235,6 +237,18 @@
   </si>
   <si>
     <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3611/T3612/T3613</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3584/T3586/T3588</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B4AF7B-7F68-4DE2-A74D-67806212857E}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -2830,4 +2844,598 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0021D6-436A-4A00-A147-8EF8C4DFCE9C}">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777EFBFE-2EB5-4F93-9C3A-8BF6F0B046F1}">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Power_Calculation_Max_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DA65B-5BE5-4D4C-BAAC-BD9F414DDA80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE3E7BC-D0B5-4D99-B245-EE84D449445C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Spain" sheetId="12" r:id="rId7"/>
     <sheet name="Romania" sheetId="13" r:id="rId8"/>
     <sheet name="Slovakia" sheetId="14" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="74">
   <si>
     <t>Color Codes</t>
   </si>
@@ -249,6 +250,12 @@
   </si>
   <si>
     <t>NGC-4306/T3584/T3586/T3588</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3667/T3668/T3669</t>
   </si>
 </sst>
 </file>
@@ -716,7 +723,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,6 +1073,368 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB3FC28-5021-4155-85EC-D6744A8AE2E2}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2127,7 +2496,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777EFBFE-2EB5-4F93-9C3A-8BF6F0B046F1}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
